--- a/焦煤/eta/焦煤288口岸监管区总库存_合并数据.xlsx
+++ b/焦煤/eta/焦煤288口岸监管区总库存_合并数据.xlsx
@@ -453,244 +453,244 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>211</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>211</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>211</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>211</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>211</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>211</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>211</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>208.1</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>208.1</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>208.4</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>208.4</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>208.5</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>208.5</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>206.2</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>208.4</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/10/19</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>211.2</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/18</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>210.3</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>241.5</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>236.9</v>
+        <v>214.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>229.3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>229.1</v>
+        <v>223.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>214.8</v>
-      </c>
+          <t>2025/10/19</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
